--- a/dados/usuarios.xlsx
+++ b/dados/usuarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,53 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Lucas</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>998332344</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>cariolanodcosta@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>kaique</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="n">
+        <v>123</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>kaskjdqo@jnvawf.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>kaique luan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>kaiquesimoes58@gmail.com</t>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>cariolanodcosta@gmail.com</t>
         </is>
       </c>
     </row>

--- a/dados/usuarios.xlsx
+++ b/dados/usuarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,12 +464,30 @@
           <t>Kaique</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>123</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>klsp.201409@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rhubi</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>klsp.201409@gmail.com</t>
         </is>
